--- a/i2o_SU_SanityBQTest/config/Clients.xlsx
+++ b/i2o_SU_SanityBQTest/config/Clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49961F6D-8DF7-4AA3-A03F-6A0A895325BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45128077-F4E2-4818-BFF3-8833E9B5C069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Execution status</t>
   </si>
   <si>
-    <t>Last Run Date And Time</t>
-  </si>
-  <si>
     <t>i2o-dev-su</t>
   </si>
   <si>
@@ -49,6 +46,18 @@
   </si>
   <si>
     <t>i2o-dev-victrola</t>
+  </si>
+  <si>
+    <t>i2o-dev-dell</t>
+  </si>
+  <si>
+    <t>i2o-dev-ecovacs</t>
+  </si>
+  <si>
+    <t>i2o-dev-ausgold</t>
+  </si>
+  <si>
+    <t>i2o-dev-jvc</t>
   </si>
 </sst>
 </file>
@@ -104,10 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -456,60 +464,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1560837492" outlineProtect="1" showAltShade="0" showHorizontalRuler="1" showVerticalRuler="1">

--- a/i2o_SU_SanityBQTest/config/Clients.xlsx
+++ b/i2o_SU_SanityBQTest/config/Clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45128077-F4E2-4818-BFF3-8833E9B5C069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7C677D-7201-4F69-9DEC-01F0DF53F9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Execution status</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>i2o-dev-jvc</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/i2o_SU_SanityBQTest/config/Clients.xlsx
+++ b/i2o_SU_SanityBQTest/config/Clients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_SU\i2o_SU_SanityBQTest\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_BQ\i2o_SU_SanityBQTest\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7C677D-7201-4F69-9DEC-01F0DF53F9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B7E2E1-4DD9-4803-BEF1-2BFAB53E4652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
